--- a/biology/Zoologie/Fluviphylax/Fluviphylax.xlsx
+++ b/biology/Zoologie/Fluviphylax/Fluviphylax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fluviphylax est un genre de poissons d'eau douce ovovivipares de la famille des Poeciliidae (ordre des Cyprinodontiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Fluviphylax se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Fluviphylax se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (31 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (31 décembre 2023) :
 Fluviphylax gouldingi Bragança, 2018
 Fluviphylax obscurus Costa, 1996
 Fluviphylax palikur Costa &amp; Le Bail, 1999
@@ -579,11 +595,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Fluviphylax Whitley, 1965[2],[3].
-Le genre Fluviphylax a été créé en remplacement du genre Potamophylax Myers &amp; Carvalho in Myers, 1955 déjà occupé par le genre d'insectes trichoptères, Potamophylax Wallendren, 1891[3] (famille des Limnephilidae).
-Fluviphylax a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Fluviphylax Whitley, 1965,.
+Le genre Fluviphylax a été créé en remplacement du genre Potamophylax Myers &amp; Carvalho in Myers, 1955 déjà occupé par le genre d'insectes trichoptères, Potamophylax Wallendren, 1891 (famille des Limnephilidae).
+Fluviphylax a pour synonyme :
 Potamophylax Myers &amp; Carvalho in Myers, 1955 (non valide car déjà occupé)</t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) G. P. Whitley, « Some fish genera scrutinized », Proceedings of the Royal Zoological Society of New South Wales, Mosman,‎ 1965, p. 25–26 (ISSN 0085-5820, OCLC 3925828, lire en ligne)</t>
         </is>
